--- a/public/template/tpl2.xlsx
+++ b/public/template/tpl2.xlsx
@@ -390,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预设分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,6 +712,10 @@
   <si>
     <t>园建详图2（多节点）（多人）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1134,25 +1134,25 @@
         <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1">
         <v>10000</v>
@@ -1178,16 +1178,16 @@
         <v>43474</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
@@ -1213,16 +1213,16 @@
         <v>43475</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1230,13 +1230,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -1248,16 +1248,16 @@
         <v>43476</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1265,13 +1265,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -1283,16 +1283,16 @@
         <v>43477</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1300,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -1318,16 +1318,16 @@
         <v>43478.535069444442</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1335,13 +1335,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -1353,16 +1353,16 @@
         <v>43479</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1370,13 +1370,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -1388,16 +1388,16 @@
         <v>43480</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1405,13 +1405,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -1423,16 +1423,16 @@
         <v>43481</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1440,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -1451,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -1462,7 +1462,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -1473,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -1484,7 +1484,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1495,7 +1495,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -1506,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1528,7 +1528,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
@@ -1539,7 +1539,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
@@ -1550,7 +1550,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -1561,7 +1561,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>19</v>
@@ -1572,7 +1572,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -1583,7 +1583,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>21</v>
@@ -1594,7 +1594,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
@@ -1605,7 +1605,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>23</v>
@@ -1616,7 +1616,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>24</v>
@@ -1627,7 +1627,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
@@ -1638,7 +1638,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>26</v>
@@ -1649,7 +1649,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>27</v>
@@ -1660,7 +1660,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -1671,7 +1671,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>29</v>
@@ -1682,7 +1682,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>30</v>
@@ -1693,7 +1693,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>31</v>
@@ -1704,7 +1704,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -1715,7 +1715,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>33</v>
@@ -1726,7 +1726,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>34</v>
@@ -1737,7 +1737,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>35</v>
@@ -1748,10 +1748,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1770,7 +1770,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>37</v>
@@ -1781,7 +1781,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>38</v>
@@ -1792,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>39</v>
@@ -1803,7 +1803,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>40</v>
@@ -1814,7 +1814,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>41</v>
@@ -1825,7 +1825,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>42</v>
@@ -1836,7 +1836,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>43</v>
@@ -1847,7 +1847,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>44</v>
@@ -1858,7 +1858,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>45</v>
@@ -1869,7 +1869,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>46</v>
@@ -1880,7 +1880,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>47</v>
@@ -1891,7 +1891,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>48</v>
@@ -1902,7 +1902,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>49</v>
@@ -1913,7 +1913,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>50</v>
@@ -1924,7 +1924,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>51</v>
@@ -1935,7 +1935,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>52</v>
@@ -1946,7 +1946,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>53</v>
@@ -1957,7 +1957,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>54</v>
@@ -1968,7 +1968,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>55</v>
@@ -1979,7 +1979,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>56</v>
@@ -1990,7 +1990,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>57</v>
@@ -2001,7 +2001,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>58</v>
@@ -2012,10 +2012,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>60</v>
@@ -2045,7 +2045,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>62</v>
@@ -2056,7 +2056,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>85</v>
@@ -2067,10 +2067,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2078,10 +2078,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2089,7 +2089,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>86</v>
@@ -2100,7 +2100,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>87</v>
@@ -2111,7 +2111,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>63</v>
@@ -2122,7 +2122,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>64</v>
@@ -2144,7 +2144,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>88</v>
@@ -2155,7 +2155,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>66</v>
@@ -2166,7 +2166,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>67</v>
@@ -2177,7 +2177,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>68</v>
@@ -2188,7 +2188,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>69</v>
@@ -2199,7 +2199,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>70</v>
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>71</v>
@@ -2221,7 +2221,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>72</v>
@@ -2232,7 +2232,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>73</v>
@@ -2243,7 +2243,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>74</v>
@@ -2254,7 +2254,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>75</v>
@@ -2265,7 +2265,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>76</v>
@@ -2276,7 +2276,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>59</v>
@@ -2287,7 +2287,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>77</v>
@@ -2298,7 +2298,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>78</v>
@@ -2320,7 +2320,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>80</v>
@@ -2331,7 +2331,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>81</v>
@@ -2342,7 +2342,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>82</v>
@@ -2353,7 +2353,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>83</v>
@@ -2364,7 +2364,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>84</v>

--- a/public/template/tpl2.xlsx
+++ b/public/template/tpl2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D26000B-9381-4443-B8A8-919808005C8C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C15FC36-29DA-4115-8F2B-79D18076288F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="3750" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,18 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="204">
   <si>
     <t>资料收集整理</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -765,6 +772,9 @@
   <si>
     <t>种植设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业编号</t>
   </si>
 </sst>
 </file>
@@ -855,7 +865,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -876,19 +886,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -953,15 +950,9 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1312,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1333,7 +1324,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
@@ -1367,8 +1358,11 @@
       <c r="K1" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L1" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1402,8 +1396,9 @@
       <c r="K2" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1437,8 +1432,9 @@
       <c r="K3" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1472,8 +1468,9 @@
       <c r="K4" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1507,8 +1504,9 @@
       <c r="K5" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1542,8 +1540,9 @@
       <c r="K6" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1577,8 +1576,9 @@
       <c r="K7" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1612,8 +1612,9 @@
       <c r="K8" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1639,8 +1640,9 @@
       <c r="K9" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1666,8 +1668,9 @@
       <c r="K10" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1693,8 +1696,9 @@
       <c r="K11" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1720,8 +1724,9 @@
       <c r="K12" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1747,8 +1752,9 @@
       <c r="K13" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1774,8 +1780,9 @@
       <c r="K14" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1809,8 +1816,9 @@
       <c r="K15" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1843,8 +1851,9 @@
       <c r="K16" s="17" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1876,8 +1885,9 @@
       <c r="K17" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1909,8 +1919,9 @@
       <c r="K18" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1942,8 +1953,9 @@
       <c r="K19" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1975,8 +1987,9 @@
       <c r="K20" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2008,8 +2021,9 @@
       <c r="K21" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -2041,8 +2055,9 @@
       <c r="K22" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2074,8 +2089,9 @@
       <c r="K23" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -2107,8 +2123,9 @@
       <c r="K24" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -2140,8 +2157,9 @@
       <c r="K25" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -2173,8 +2191,9 @@
       <c r="K26" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -2206,8 +2225,9 @@
       <c r="K27" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -2239,8 +2259,9 @@
       <c r="K28" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -2272,8 +2293,9 @@
       <c r="K29" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -2305,8 +2327,9 @@
       <c r="K30" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -2339,8 +2362,9 @@
       <c r="K31" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31" s="23"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -2372,8 +2396,9 @@
       <c r="K32" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -2405,8 +2430,9 @@
       <c r="K33" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -2438,19 +2464,20 @@
       <c r="K34" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22">
+      <c r="D35" s="19"/>
+      <c r="E35" s="19">
         <v>1000</v>
       </c>
       <c r="F35" s="20">
@@ -2462,7 +2489,7 @@
       <c r="H35" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="19" t="s">
         <v>123</v>
       </c>
       <c r="J35" s="19" t="s">
@@ -2471,8 +2498,9 @@
       <c r="K35" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -2505,8 +2533,9 @@
       <c r="K36" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L36" s="23"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -2538,8 +2567,9 @@
       <c r="K37" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -2571,8 +2601,9 @@
       <c r="K38" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L38" s="22"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -2604,15 +2635,16 @@
       <c r="K39" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L39" s="22"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D40" s="19"/>
@@ -2637,8 +2669,9 @@
       <c r="K40" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L40" s="22"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -2670,8 +2703,9 @@
       <c r="K41" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -2703,8 +2737,9 @@
       <c r="K42" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L42" s="22"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -2736,8 +2771,9 @@
       <c r="K43" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -2769,8 +2805,9 @@
       <c r="K44" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -2802,8 +2839,9 @@
       <c r="K45" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -2836,8 +2874,9 @@
       <c r="K46" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L46" s="23"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -2869,8 +2908,9 @@
       <c r="K47" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L47" s="22"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -2902,8 +2942,9 @@
       <c r="K48" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L48" s="22"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -2931,8 +2972,9 @@
       <c r="K49" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L49" s="22"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -2960,8 +3002,9 @@
       <c r="K50" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L50" s="22"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -2989,8 +3032,9 @@
       <c r="K51" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -3018,8 +3062,9 @@
       <c r="K52" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L52" s="22"/>
+    </row>
+    <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -3041,15 +3086,16 @@
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L53" s="21"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="11">
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D54" s="17"/>
@@ -3065,8 +3111,9 @@
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L54" s="22"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -3088,8 +3135,9 @@
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L55" s="22"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -3111,8 +3159,9 @@
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L56" s="22"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -3134,8 +3183,9 @@
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L57" s="22"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -3157,8 +3207,9 @@
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L58" s="22"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -3181,8 +3232,9 @@
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L59" s="22"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -3204,8 +3256,9 @@
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L60" s="22"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -3227,8 +3280,9 @@
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -3250,8 +3304,9 @@
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L62" s="22"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -3273,8 +3328,9 @@
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L63" s="22"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -3296,8 +3352,9 @@
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L64" s="22"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -3319,8 +3376,9 @@
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L65" s="22"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -3342,8 +3400,9 @@
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L66" s="22"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -3365,8 +3424,9 @@
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L67" s="22"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -3388,8 +3448,9 @@
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L68" s="22"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -3411,8 +3472,9 @@
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L69" s="22"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -3434,8 +3496,9 @@
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L70" s="22"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -3457,8 +3520,9 @@
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L71" s="22"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -3480,8 +3544,9 @@
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L72" s="22"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -3501,8 +3566,9 @@
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L73" s="22"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -3524,8 +3590,9 @@
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L74" s="22"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -3545,8 +3612,9 @@
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L75" s="22"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -3566,8 +3634,9 @@
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
-    </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L76" s="22"/>
+    </row>
+    <row r="77" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -3589,8 +3658,9 @@
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L77" s="23"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -3612,8 +3682,9 @@
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L78" s="22"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -3635,8 +3706,9 @@
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L79" s="22"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -3658,8 +3730,9 @@
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L80" s="22"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -3681,8 +3754,9 @@
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
-    </row>
-    <row r="82" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L81" s="22"/>
+    </row>
+    <row r="82" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -3705,8 +3779,9 @@
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L82" s="21"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -3728,8 +3803,9 @@
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L83" s="22"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -3751,8 +3827,9 @@
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L84" s="22"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
         <v>84</v>
       </c>
@@ -3774,8 +3851,9 @@
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L85" s="22"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -3797,8 +3875,9 @@
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L86" s="22"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -3820,8 +3899,9 @@
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L87" s="22"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -3843,6 +3923,7 @@
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
+      <c r="L88" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
